--- a/public/Excel_example/user/graduate_threshold.xlsx
+++ b/public/Excel_example/user/graduate_threshold.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>單位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +33,6 @@
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuck you</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -407,53 +399,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel_example/user/graduate_threshold.xlsx
+++ b/public/Excel_example/user/graduate_threshold.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
